--- a/biology/Zoologie/Grimpar_à_dos_olive/Grimpar_à_dos_olive.xlsx
+++ b/biology/Zoologie/Grimpar_à_dos_olive/Grimpar_à_dos_olive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_dos_olive</t>
+          <t>Grimpar_à_dos_olive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xiphorhynchus triangularis
 Le Grimpar à dos olive (Xiphorhynchus triangularis) est une espèce d'oiseaux de la famille des Furnariidae. Cet oiseau est répandu à travers la moitié nord des Andes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_dos_olive</t>
+          <t>Grimpar_à_dos_olive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Xiphorhynchus triangularis a été décrite pour la première fois en 1842 par l'ornithologue français Frédéric de Lafresnaye[1] (1783-1861) sous le protonyme Dendrocolaptes triangularis[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Xiphorhynchus triangularis a été décrite pour la première fois en 1842 par l'ornithologue français Frédéric de Lafresnaye (1783-1861) sous le protonyme Dendrocolaptes triangularis,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_dos_olive</t>
+          <t>Grimpar_à_dos_olive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Xiphorhynchus triangularis triangularis (Lafresnaye, 1842)
 sous-espèce Xiphorhynchus triangularis hylodromus Wetmore, 1939
 sous-espèce Xiphorhynchus triangularis intermedius Carriker, 1935
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_dos_olive</t>
+          <t>Grimpar_à_dos_olive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, dérivé du latin triangulus, « triangle », fait référence aux taches triangulaires de sa livrée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, dérivé du latin triangulus, « triangle », fait référence aux taches triangulaires de sa livrée.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_dos_olive</t>
+          <t>Grimpar_à_dos_olive</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>F. de Lafresnaye, « Description de quelques Oiseaux nouveaux », Revue zoologique, Paris, Société Cuvierienne, vol. 1842,‎ mai 1842, p. 133-134 (ISSN 1259-6493 et 2419-4816, lire en ligne)</t>
         </is>
